--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H2">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.29639160852464</v>
+        <v>8.259748666666667</v>
       </c>
       <c r="N2">
-        <v>6.29639160852464</v>
+        <v>24.779246</v>
       </c>
       <c r="O2">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="P2">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="Q2">
-        <v>65.46936823156932</v>
+        <v>86.18422746017555</v>
       </c>
       <c r="R2">
-        <v>65.46936823156932</v>
+        <v>775.6580471415799</v>
       </c>
       <c r="S2">
-        <v>0.3515946971164801</v>
+        <v>0.3999526590379378</v>
       </c>
       <c r="T2">
-        <v>0.3515946971164801</v>
+        <v>0.3999526590379379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H3">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.66517850639993</v>
+        <v>5.709686666666666</v>
       </c>
       <c r="N3">
-        <v>5.66517850639993</v>
+        <v>17.12906</v>
       </c>
       <c r="O3">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="P3">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="Q3">
-        <v>58.90606569497931</v>
+        <v>59.57626003708889</v>
       </c>
       <c r="R3">
-        <v>58.90606569497931</v>
+        <v>536.1863403337999</v>
       </c>
       <c r="S3">
-        <v>0.3163473374768699</v>
+        <v>0.2764738319245217</v>
       </c>
       <c r="T3">
-        <v>0.3163473374768699</v>
+        <v>0.2764738319245219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H4">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.0764131875407</v>
+        <v>4.176559</v>
       </c>
       <c r="N4">
-        <v>4.0764131875407</v>
+        <v>12.529677</v>
       </c>
       <c r="O4">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="P4">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="Q4">
-        <v>42.38621302998373</v>
+        <v>43.57923290202334</v>
       </c>
       <c r="R4">
-        <v>42.38621302998373</v>
+        <v>392.2130961182099</v>
       </c>
       <c r="S4">
-        <v>0.2276296248877749</v>
+        <v>0.2022368894128777</v>
       </c>
       <c r="T4">
-        <v>0.2276296248877749</v>
+        <v>0.2022368894128777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H5">
+        <v>31.30273</v>
+      </c>
+      <c r="I5">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J5">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.909174</v>
+      </c>
+      <c r="N5">
+        <v>5.727522</v>
+      </c>
+      <c r="O5">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="P5">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="Q5">
+        <v>19.92078608167333</v>
+      </c>
+      <c r="R5">
+        <v>179.28707473506</v>
+      </c>
+      <c r="S5">
+        <v>0.09244581750382105</v>
+      </c>
+      <c r="T5">
+        <v>0.09244581750382107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.310422</v>
+      </c>
+      <c r="H6">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.259748666666667</v>
+      </c>
+      <c r="N6">
+        <v>24.779246</v>
+      </c>
+      <c r="O6">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="P6">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="Q6">
+        <v>2.564007700604</v>
+      </c>
+      <c r="R6">
+        <v>23.076069305436</v>
+      </c>
+      <c r="S6">
+        <v>0.01189871659665544</v>
+      </c>
+      <c r="T6">
+        <v>0.01189871659665544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.310422</v>
+      </c>
+      <c r="H7">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.709686666666666</v>
+      </c>
+      <c r="N7">
+        <v>17.12906</v>
+      </c>
+      <c r="O7">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="P7">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="Q7">
+        <v>1.77241235444</v>
+      </c>
+      <c r="R7">
+        <v>15.95171118996</v>
+      </c>
+      <c r="S7">
+        <v>0.008225182901332301</v>
+      </c>
+      <c r="T7">
+        <v>0.008225182901332303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="H5">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.87011275291609</v>
-      </c>
-      <c r="N5">
-        <v>1.87011275291609</v>
-      </c>
-      <c r="O5">
-        <v>0.1044283405188752</v>
-      </c>
-      <c r="P5">
-        <v>0.1044283405188752</v>
-      </c>
-      <c r="Q5">
-        <v>19.4452804189392</v>
-      </c>
-      <c r="R5">
-        <v>19.4452804189392</v>
-      </c>
-      <c r="S5">
-        <v>0.1044283405188752</v>
-      </c>
-      <c r="T5">
-        <v>0.1044283405188752</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.310422</v>
+      </c>
+      <c r="H8">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.176559</v>
+      </c>
+      <c r="N8">
+        <v>12.529677</v>
+      </c>
+      <c r="O8">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="P8">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="Q8">
+        <v>1.296495797898</v>
+      </c>
+      <c r="R8">
+        <v>11.668462181082</v>
+      </c>
+      <c r="S8">
+        <v>0.006016610661625134</v>
+      </c>
+      <c r="T8">
+        <v>0.006016610661625135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.310422</v>
+      </c>
+      <c r="H9">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.909174</v>
+      </c>
+      <c r="N9">
+        <v>5.727522</v>
+      </c>
+      <c r="O9">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="P9">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="Q9">
+        <v>0.592649611428</v>
+      </c>
+      <c r="R9">
+        <v>5.333846502852</v>
+      </c>
+      <c r="S9">
+        <v>0.00275029196122873</v>
+      </c>
+      <c r="T9">
+        <v>0.00275029196122873</v>
       </c>
     </row>
   </sheetData>
